--- a/Gewichten.xlsx
+++ b/Gewichten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="11670"/>
+    <workbookView windowWidth="19200" windowHeight="11670" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="kogelslingeren" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="14">
+  <si>
+    <t>Mannen/Vrouwen</t>
+  </si>
   <si>
     <t>categorie</t>
   </si>
@@ -63,10 +66,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;€&quot;\ * #,##0_);_(&quot;€&quot;\ * \(#,##0\);_(&quot;€&quot;\ * &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;€&quot;\ * #,##0.00_);_(&quot;€&quot;\ * \(#,##0.00\);_(&quot;€&quot;\ * &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;€&quot;\ * #,##0.00_);_(&quot;€&quot;\ * \(#,##0.00\);_(&quot;€&quot;\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;€&quot;\ * #,##0_);_(&quot;€&quot;\ * \(#,##0\);_(&quot;€&quot;\ * &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -111,16 +114,61 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,14 +176,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,25 +190,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -180,51 +228,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -247,19 +250,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,13 +340,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,55 +352,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,19 +400,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,55 +412,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,11 +447,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,16 +478,36 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,161 +529,135 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -663,10 +666,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1005,8 +1008,8 @@
   <sheetPr/>
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -1016,57 +1019,48 @@
     <col min="4" max="4" width="9.71428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
       <c r="E3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="3">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
@@ -1074,35 +1068,45 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
       <c r="E5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="3">
-        <v>7.26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
       </c>
       <c r="E6" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="3"/>
-      <c r="E7" s="2"/>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3">
+        <v>7.26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1"/>
@@ -1203,97 +1207,99 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A7:B10"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
-        <v>7.26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2">
-        <v>4</v>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>7.26</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
-        <v>9.08</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
       <c r="E4" s="2">
-        <v>5.45</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>9.08</v>
+      </c>
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
-        <v>11.34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
       <c r="E5" s="2">
-        <v>7.26</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
+        <v>11.34</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2">
+      <c r="E6" s="2">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
         <v>15.88</v>
       </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2">
         <v>9.08</v>
       </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="2"/>
@@ -1316,62 +1322,53 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A7:B11"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.75</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -1379,13 +1376,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="D5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1.75</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -1393,20 +1390,31 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="2"/>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="2"/>
@@ -1431,63 +1439,54 @@
   <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
       <c r="E3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="2">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
@@ -1495,34 +1494,45 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
       <c r="E5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="2">
-        <v>7.26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
       </c>
       <c r="E6" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="2"/>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>7.26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="2"/>
